--- a/content/dadesref/entitats/Graus_dependencia.xlsx
+++ b/content/dadesref/entitats/Graus_dependencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\temp\modelatge\Graus_dependencia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/llorenc_franco_gencat_cat/Documents/01 - CTTI/Gestió interna/Treball remot/2019 - Dades de referència/__C6/01.CATaleg/10.Modelatge_OIAD/101.Graus_dependencia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B3AE73-2479-4283-AF42-246A512308AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{71B3AE73-2479-4283-AF42-246A512308AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{096224E4-2E84-4EC2-ACFB-763DF4D33F8B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grau dependència" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t xml:space="preserve">Nom entitat: </t>
   </si>
   <si>
-    <t>No consta</t>
-  </si>
-  <si>
     <t>Descripció</t>
   </si>
   <si>
@@ -77,16 +74,13 @@
     <t>Es considera que una persona té un grau de dependència moderada quan necessita ajuda per realitzar diverses activitats bàsiques de la vida diària, almenys una vegada al dia, o té necessitats d'ajuda intermitent o limitada per a la seva autonomia personal. (De vint-i-cinc a quaranta-nou punts al BVD).</t>
   </si>
   <si>
-    <t>Altres</t>
-  </si>
-  <si>
-    <t>Es coneix el grau de dependència, però no és cap de la llista.</t>
-  </si>
-  <si>
     <t>Grau dependència</t>
   </si>
   <si>
-    <t>Es desconeix el grau de dependència.</t>
+    <t>No Grau</t>
+  </si>
+  <si>
+    <t>Es considera quan la persona tot i tenir puntuació en el barem no arriba als 25 punts necessaris per obtenir un dels graus que donen accés a recursos</t>
   </si>
 </sst>
 </file>
@@ -177,7 +171,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -212,7 +206,7 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -268,11 +262,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C8" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="3" xr3:uid="{1E3D4D53-56EF-457D-872B-BE7C3BEBB371}" name="Grau" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1E3D4D53-56EF-457D-872B-BE7C3BEBB371}" name="Grau" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{E836EC39-353D-4029-988F-D8FE023766AD}" name="Nom" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7A3C56BF-A613-4D8A-B507-038175437A10}" name="Descripció" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7A3C56BF-A613-4D8A-B507-038175437A10}" name="Descripció" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -541,14 +535,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="97.77734375" style="4" customWidth="1"/>
     <col min="4" max="16384" width="11.44140625" style="1"/>
   </cols>
@@ -558,72 +552,61 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="7" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
